--- a/Lab_02/experiments.xlsx
+++ b/Lab_02/experiments.xlsx
@@ -413,14 +413,807 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1" t="n">
+        <v>6.815399683546275e-05</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0001326040001004003</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0002474979992257431</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.000225010997382924</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0002866810027626343</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0004098920035175979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0004000340049969964</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.000462780000816565</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0005867649961146526</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0005667219957103953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0006802419957239181</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0006999190009082668</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0007403720010188408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.000828535994514823</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.000869547002366744</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0009324759957962669</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17000</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.001122790003137197</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.001185255998279899</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.001318654001806863</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.001277916999242734</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.001322762000199873</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.001361034999717958</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.001453333003155421</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.001662203001615126</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.001693758997134864</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.001552771995193325</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27000</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.001894697998068295</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28000</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.001915132997964974</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29000</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.001891150997835211</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30000</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.001919320995511953</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31000</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.002012625998759177</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32000</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.002249197001219727</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33000</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.002107495995005593</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34000</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.002081170998280868</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35000</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.002436353999655694</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36000</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.002375141004449688</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.002421844001219142</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38000</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.002684938001038972</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39000</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.00266481599828694</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.002546846997574903</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.002732607994403224</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42000</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.002757871996436734</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43000</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.002827625998179428</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.002985603001434356</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.003538087003107648</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.003079745001741685</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47000</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.003196488993125968</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48000</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.003207046000170521</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49000</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.003241427999455482</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.003629216000263114</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51000</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.003574504000425804</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52000</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.003668559002107941</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53000</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.003648288002295885</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54000</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.004001131004770286</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55000</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.003759444000024814</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56000</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.003958952998800669</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57000</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.003866268998535816</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58000</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.004006395996839274</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59000</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.004035855003166944</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60000</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.00464720799936913</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61000</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.004274485996575095</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62000</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.004358880003564991</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63000</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.004430288994626608</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64000</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.004812993996893056</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65000</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.004561835005006287</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66000</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.004753332999825943</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67000</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.004548290999082383</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68000</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.004728061998321209</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69000</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.004726022001705132</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70000</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.004780916999152396</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71000</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.005139996996149421</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72000</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.004873073005001061</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73000</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.005005571998481173</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74000</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.005207382993830834</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75000</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.005218022997723892</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76000</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.005384295996918809</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77000</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.005367521996959113</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78000</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.005504452004970517</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79000</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.005626716003462207</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80000</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.005806300003314391</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81000</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.005503452004631981</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82000</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.005846461994224228</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83000</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.005940035000094213</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84000</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.005727751995436847</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85000</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.005834262999997009</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86000</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.006003409005643334</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87000</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.006282668997300789</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88000</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.006271365004067775</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89000</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.006306139002845157</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90000</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.006289998003921937</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91000</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.006521726994833443</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92000</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.006358683000144083</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93000</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.006641927000600845</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94000</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.006690176996926311</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95000</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.006643104003160261</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96000</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.007112095998309087</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97000</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.006763158999092411</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98000</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.006812503997934982</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99000</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.006835289997979999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>